--- a/rensou_game/Assets/ExcelData/QA.xlsx
+++ b/rensou_game/Assets/ExcelData/QA.xlsx
@@ -793,10 +793,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>てじょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひこうき</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1001,6 +997,10 @@
   </si>
   <si>
     <t>けずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てちょう</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M2"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1722,31 +1722,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -2026,13 +2026,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>26</v>
@@ -2050,7 +2050,7 @@
         <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>26</v>
@@ -2178,13 +2178,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -2202,7 +2202,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>26</v>
@@ -2582,7 +2582,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>26</v>
@@ -2596,31 +2596,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>26</v>
@@ -2672,19 +2672,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -2710,31 +2710,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>26</v>
@@ -2748,31 +2748,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>26</v>
@@ -2786,31 +2786,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>26</v>
@@ -2824,7 +2824,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>26</v>
@@ -2862,7 +2862,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>26</v>
@@ -2900,37 +2900,37 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="K39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2938,37 +2938,37 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -2982,31 +2982,31 @@
         <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">

--- a/rensou_game/Assets/ExcelData/QA.xlsx
+++ b/rensou_game/Assets/ExcelData/QA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="454">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>images</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>image1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,10 +146,6 @@
   </si>
   <si>
     <t>image4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -517,18 +509,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>だいそうじ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>こうはく</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>がんじつ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>さくら</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -685,10 +669,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いたすと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ねっとわーく</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,14 +805,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あかぺん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>せいと</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -842,14 +814,6 @@
   </si>
   <si>
     <t>きょうかしょ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぱそこん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きょうし</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -916,23 +880,445 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ねき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>てんぷら</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>さとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃがいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にくじゃが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほちきす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5がつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんぽうきねんび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぜに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わりびきけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴリラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラッパ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サッカーゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールキーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらすと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱそこん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がっこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あかぺん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ながのけん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>さとう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にく</t>
+    <t>めん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャガイモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積み木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福神漬け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着物</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おみくじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>烏龍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海藻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汁物(汁)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海苔</t>
+    <rPh sb="0" eb="2">
+      <t>ノリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鐘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大掃除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおそうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅白</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がんたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひな祭り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こどもの日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜餅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入学式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祭り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">川 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボウズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪(雪だるま)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリスマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大晦日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こどもの日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みどりの日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>憲法記念日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将棋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレビ番組</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なべ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -940,67 +1326,561 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>じゃがいも</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にくじゃが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほちきす</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>めん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きゅうじつ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5がつ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>けんぽうきねんび</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こぜに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さつ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わりびきけん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いろ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>くろ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>けずる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>てちょう</t>
+    <t>小銭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お札</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引券</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴門</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もみじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サツマイモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋刀魚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>串</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子機器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬刺し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレー粉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みりん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祭り</t>
+    <rPh sb="0" eb="1">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油揚げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろうそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーホルダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南京錠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花火</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踊り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浴衣</t>
+    <rPh sb="0" eb="2">
+      <t>ユカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラウンド(野球)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消しゴム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒板</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科書</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤ペン</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行機</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雲</t>
+    <rPh sb="0" eb="1">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手帳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手錠</t>
+    <rPh sb="0" eb="2">
+      <t>テジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白バイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パトカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病気</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医者</t>
+    <rPh sb="0" eb="2">
+      <t>イシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリンピック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長野県</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天ぷら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャガイモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しりとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おでん</t>
+  </si>
+  <si>
+    <t>サッカー</t>
+  </si>
+  <si>
+    <t>カレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初詣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>お茶</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味噌汁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>大晦日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>かき氷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>ゴールデンウィーク</t>
+  </si>
+  <si>
+    <t>将棋</t>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>財布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラーメン</t>
+  </si>
+  <si>
+    <t>秋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焼き鳥</t>
+  </si>
+  <si>
+    <t>パソコン</t>
+  </si>
+  <si>
+    <t>刺身</t>
+  </si>
+  <si>
+    <t>調味料</t>
+  </si>
+  <si>
+    <t>たこ焼き</t>
+  </si>
+  <si>
+    <t>大豆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+  </si>
+  <si>
+    <t>鍵</t>
+  </si>
+  <si>
+    <t>祭り</t>
+  </si>
+  <si>
+    <t>野球</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文房具</t>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教務室</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>警察</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉じゃが</t>
+  </si>
+  <si>
+    <t>せんべい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納豆</t>
+    <rPh sb="0" eb="2">
+      <t>ナットウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,7 +1905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1038,14 +1918,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1091,22 +1965,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1118,7 +1981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,10 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,7 +2298,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,112 +2316,119 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>408</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="10"/>
+      <c r="M1" s="2" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1572,34 +2439,37 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1607,37 +2477,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -1645,37 +2518,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -1683,37 +2559,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="O7" s="8"/>
     </row>
@@ -1722,37 +2601,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -1760,37 +2642,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -1798,37 +2683,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>450</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -1839,34 +2727,37 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -1874,37 +2765,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -1912,37 +2806,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
@@ -1950,37 +2847,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>296</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -1991,34 +2891,37 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -2026,645 +2929,696 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>324</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>341</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>26</v>
+        <v>347</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>349</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>341</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>353</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>453</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>26</v>
+        <v>359</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>26</v>
+        <v>362</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>364</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>80</v>
+      <c r="M32" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -2672,37 +3626,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>371</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>372</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -2710,37 +3667,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>373</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>375</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>26</v>
+        <v>376</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -2748,37 +3708,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>26</v>
+        <v>373</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>379</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>26</v>
+        <v>380</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -2786,37 +3749,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>26</v>
+        <v>386</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -2824,37 +3790,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>388</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>26</v>
+        <v>391</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -2862,37 +3831,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>394</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>26</v>
+        <v>396</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -2900,37 +3872,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>397</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2938,37 +3913,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>401</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>219</v>
+        <v>402</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>26</v>
+        <v>403</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>26</v>
+        <v>404</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -2976,37 +3954,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>341</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>406</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
